--- a/media/eb_order/eb_order(request).xlsx
+++ b/media/eb_order/eb_order(request).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ebusiness.old\media\eb_order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\ebusiness.old\20191114\media\eb_order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42431040-1DC4-4E40-BE1A-B04651310374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB516A2-DED5-4D77-9FA2-EB74C2B04B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3336" yWindow="696" windowWidth="14040" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4176" yWindow="228" windowWidth="16896" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>作業報告書査収による毎月末締め、翌々月15日に現金振込</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>① 時間単位30分。</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -282,6 +278,10 @@
     <t>③ 請求はWisdom Technologyからメール配信の「御請求書」に押印、郵送する。</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>作業報告書査収による毎月末締め、翌々月{$PAYMENT_DAY$}日に現金振込</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -291,7 +291,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -327,7 +327,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -365,7 +365,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -755,7 +755,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1062,9 +1062,11 @@
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.8"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
@@ -1077,16 +1079,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1099,54 +1101,54 @@
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1">
       <c r="D6" s="51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="51"/>
       <c r="F6" s="51"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="6"/>
       <c r="F9" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="F10" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="F11" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
       <c r="F12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.6">
+      <c r="F13" s="36" t="s">
         <v>38</v>
-      </c>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="1:9" ht="19.8">
-      <c r="F13" s="36" t="s">
-        <v>39</v>
       </c>
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="F14" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="37"/>
     </row>
@@ -1156,7 +1158,7 @@
     <row r="16" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="2"/>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
@@ -1166,7 +1168,7 @@
       <c r="A18" s="1"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="18.600000000000001" thickBot="1">
+    <row r="19" spans="1:9" ht="14.4" thickBot="1">
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:9">
@@ -1213,7 +1215,7 @@
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="41" t="s">
@@ -1259,7 +1261,7 @@
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -1272,7 +1274,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1283,11 +1285,11 @@
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -1300,7 +1302,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -1313,7 +1315,7 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -1326,7 +1328,7 @@
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -1339,7 +1341,7 @@
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
@@ -1382,7 +1384,7 @@
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -1395,7 +1397,7 @@
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="42" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -1408,7 +1410,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
@@ -1421,7 +1423,7 @@
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
@@ -1432,11 +1434,11 @@
     </row>
     <row r="39" spans="1:9" ht="18.75" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
@@ -1449,7 +1451,7 @@
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
@@ -1462,7 +1464,7 @@
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
@@ -1475,7 +1477,7 @@
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
@@ -1488,7 +1490,7 @@
       <c r="A43" s="16"/>
       <c r="B43" s="17"/>
       <c r="C43" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
@@ -1499,7 +1501,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="52"/>
       <c r="C44" s="52"/>
@@ -1572,7 +1574,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="49" man="1"/>
   </colBreaks>
